--- a/чистый бланк/Бланк ЗПФ  клиент ООО ЛП на отгрузку с 27.02.2025.xlsx
+++ b/чистый бланк/Бланк ЗПФ  клиент ООО ЛП на отгрузку с 27.02.2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B65581-C3FC-4A61-A548-E12801ABE90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22140" windowHeight="12255" tabRatio="420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Бланк заказа" sheetId="2" r:id="rId1"/>
@@ -563,7 +564,15 @@
     <definedName name="UnloadAddress">'Бланк заказа'!$D$8</definedName>
     <definedName name="UnloadAdressList0001">Setting!$B$8:$B$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2208,7 +2217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -7316,6 +7325,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -7365,63 +7377,60 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="20% - Акцент1 2" xfId="1"/>
-    <cellStyle name="20% - Акцент2 2" xfId="2"/>
-    <cellStyle name="20% - Акцент3 2" xfId="3"/>
-    <cellStyle name="20% - Акцент4 2" xfId="4"/>
-    <cellStyle name="20% - Акцент5 2" xfId="5"/>
-    <cellStyle name="20% - Акцент6 2" xfId="6"/>
-    <cellStyle name="40% - Акцент1 2" xfId="7"/>
-    <cellStyle name="40% - Акцент2 2" xfId="8"/>
-    <cellStyle name="40% - Акцент3 2" xfId="9"/>
-    <cellStyle name="40% - Акцент4 2" xfId="10"/>
-    <cellStyle name="40% - Акцент5 2" xfId="11"/>
-    <cellStyle name="40% - Акцент6 2" xfId="12"/>
-    <cellStyle name="60% - Акцент1 2" xfId="13"/>
-    <cellStyle name="60% - Акцент2 2" xfId="14"/>
-    <cellStyle name="60% - Акцент3 2" xfId="15"/>
-    <cellStyle name="60% - Акцент4 2" xfId="16"/>
-    <cellStyle name="60% - Акцент5 2" xfId="17"/>
-    <cellStyle name="60% - Акцент6 2" xfId="18"/>
-    <cellStyle name="Акцент1 2" xfId="19"/>
-    <cellStyle name="Акцент2 2" xfId="20"/>
-    <cellStyle name="Акцент3 2" xfId="21"/>
-    <cellStyle name="Акцент4 2" xfId="22"/>
-    <cellStyle name="Акцент5 2" xfId="23"/>
-    <cellStyle name="Акцент6 2" xfId="24"/>
-    <cellStyle name="Ввод  2" xfId="25"/>
-    <cellStyle name="Вывод 2" xfId="26"/>
-    <cellStyle name="Вычисление 2" xfId="27"/>
-    <cellStyle name="Заголовок 1 2" xfId="28"/>
-    <cellStyle name="Заголовок 2 2" xfId="29"/>
-    <cellStyle name="Заголовок 3 2" xfId="30"/>
-    <cellStyle name="Заголовок 4 2" xfId="31"/>
-    <cellStyle name="Итог 2" xfId="32"/>
-    <cellStyle name="Контрольная ячейка 2" xfId="33"/>
-    <cellStyle name="Название 2" xfId="34"/>
-    <cellStyle name="Нейтральный 2" xfId="35"/>
+    <cellStyle name="20% - Акцент1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Акцент2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Акцент3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Акцент4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Акцент5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Акцент6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Акцент1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Акцент2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Акцент3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Акцент4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Акцент5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Акцент6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Акцент1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Акцент2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Акцент3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Акцент4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Акцент5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Акцент6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Акцент1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Акцент2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Акцент3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Акцент4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Акцент5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Акцент6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Ввод  2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Вывод 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Вычисление 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Заголовок 1 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Заголовок 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Заголовок 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Заголовок 4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Итог 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Название 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Нейтральный 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 16" xfId="36"/>
-    <cellStyle name="Обычный 16 2" xfId="37"/>
-    <cellStyle name="Обычный 16 2 2" xfId="38"/>
-    <cellStyle name="Обычный 2" xfId="39"/>
-    <cellStyle name="Обычный 2 2" xfId="40"/>
-    <cellStyle name="Обычный 2 2 2" xfId="41"/>
-    <cellStyle name="Обычный 3" xfId="42"/>
-    <cellStyle name="Обычный 3 2" xfId="43"/>
-    <cellStyle name="Обычный 3 3" xfId="44"/>
-    <cellStyle name="Плохой 2" xfId="45"/>
-    <cellStyle name="Пояснение 2" xfId="46"/>
-    <cellStyle name="Примечание 2" xfId="47"/>
-    <cellStyle name="Примечание 2 2" xfId="48"/>
-    <cellStyle name="Связанная ячейка 2" xfId="49"/>
-    <cellStyle name="Текст предупреждения 2" xfId="50"/>
-    <cellStyle name="Хороший 2" xfId="51"/>
+    <cellStyle name="Обычный 16" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Обычный 16 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Обычный 16 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Обычный 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Обычный 3 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Плохой 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Пояснение 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Примечание 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Примечание 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Связанная ячейка 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Текст предупреждения 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Хороший 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -7734,6 +7743,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7769,6 +7795,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -7944,12 +7987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BP338"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:R9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7993,31 +8036,31 @@
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
-      <c r="D1" s="543" t="s">
+      <c r="D1" s="544" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
       <c r="G1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="543" t="s">
+      <c r="H1" s="544" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
-      <c r="K1" s="543"/>
-      <c r="L1" s="543"/>
-      <c r="M1" s="543"/>
-      <c r="N1" s="543"/>
-      <c r="O1" s="543"/>
-      <c r="P1" s="543"/>
-      <c r="Q1" s="543"/>
-      <c r="R1" s="544" t="s">
+      <c r="I1" s="544"/>
+      <c r="J1" s="544"/>
+      <c r="K1" s="544"/>
+      <c r="L1" s="544"/>
+      <c r="M1" s="544"/>
+      <c r="N1" s="544"/>
+      <c r="O1" s="544"/>
+      <c r="P1" s="544"/>
+      <c r="Q1" s="544"/>
+      <c r="R1" s="545" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="545"/>
-      <c r="T1" s="545"/>
+      <c r="S1" s="546"/>
+      <c r="T1" s="546"/>
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
@@ -8051,17 +8094,17 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
-      <c r="P2" s="546" t="str">
+      <c r="P2" s="547" t="str">
         <f>IF(ISNA(VLOOKUP(DeliveryAddress,Setting!B:C,2,FALSE)),"",IF(ISNA(VLOOKUP(UnloadAddress,Setting!B:C,2,FALSE)),"",IF(VLOOKUP(DeliveryAddress,Setting!B:C,2,FALSE)=VLOOKUP(UnloadAddress,Setting!B:C,2,FALSE),"","Укажите, кто получит груз в поле Тип доверенности.")))</f>
         <v/>
       </c>
-      <c r="Q2" s="546"/>
-      <c r="R2" s="546"/>
-      <c r="S2" s="546"/>
-      <c r="T2" s="546"/>
-      <c r="U2" s="546"/>
-      <c r="V2" s="546"/>
-      <c r="W2" s="546"/>
+      <c r="Q2" s="547"/>
+      <c r="R2" s="547"/>
+      <c r="S2" s="547"/>
+      <c r="T2" s="547"/>
+      <c r="U2" s="547"/>
+      <c r="V2" s="547"/>
+      <c r="W2" s="547"/>
       <c r="X2" s="19"/>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
@@ -8091,14 +8134,14 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
-      <c r="P3" s="546"/>
-      <c r="Q3" s="546"/>
-      <c r="R3" s="546"/>
-      <c r="S3" s="546"/>
-      <c r="T3" s="546"/>
-      <c r="U3" s="546"/>
-      <c r="V3" s="546"/>
-      <c r="W3" s="546"/>
+      <c r="P3" s="547"/>
+      <c r="Q3" s="547"/>
+      <c r="R3" s="547"/>
+      <c r="S3" s="547"/>
+      <c r="T3" s="547"/>
+      <c r="U3" s="547"/>
+      <c r="V3" s="547"/>
+      <c r="W3" s="547"/>
       <c r="X3" s="19"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
@@ -8147,34 +8190,34 @@
       </c>
       <c r="B5" s="525"/>
       <c r="C5" s="525"/>
-      <c r="D5" s="547"/>
-      <c r="E5" s="547"/>
-      <c r="F5" s="548" t="s">
+      <c r="D5" s="548"/>
+      <c r="E5" s="548"/>
+      <c r="F5" s="549" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="548"/>
-      <c r="H5" s="547"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="547"/>
-      <c r="L5" s="547"/>
-      <c r="M5" s="547"/>
+      <c r="G5" s="549"/>
+      <c r="H5" s="548"/>
+      <c r="I5" s="548"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="548"/>
+      <c r="L5" s="548"/>
+      <c r="M5" s="548"/>
       <c r="N5" s="75"/>
       <c r="P5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="549">
+      <c r="Q5" s="550">
         <v>45719</v>
       </c>
-      <c r="R5" s="549"/>
-      <c r="T5" s="550" t="s">
+      <c r="R5" s="550"/>
+      <c r="T5" s="551" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="551"/>
-      <c r="V5" s="552" t="s">
+      <c r="U5" s="552"/>
+      <c r="V5" s="553" t="s">
         <v>525</v>
       </c>
-      <c r="W5" s="553"/>
+      <c r="W5" s="554"/>
       <c r="AB5" s="59"/>
       <c r="AC5" s="59"/>
       <c r="AD5" s="59"/>
@@ -8275,7 +8318,7 @@
       <c r="Q8" s="523">
         <v>0.41666666666666669</v>
       </c>
-      <c r="R8" s="554"/>
+      <c r="R8" s="541"/>
       <c r="T8" s="528"/>
       <c r="U8" s="529"/>
       <c r="V8" s="532"/>
@@ -8301,24 +8344,24 @@
         <v/>
       </c>
       <c r="G9" s="515"/>
-      <c r="H9" s="541" t="str">
+      <c r="H9" s="542" t="str">
         <f>IF(AND($A$9="Тип доверенности/получателя при получении в адресе перегруза:",$D$9="Разовая доверенность"),"Введите ФИО","")</f>
         <v/>
       </c>
-      <c r="I9" s="541"/>
-      <c r="J9" s="541" t="str">
+      <c r="I9" s="542"/>
+      <c r="J9" s="542" t="str">
         <f>IF(AND($A$9="Тип доверенности/получателя при получении в адресе перегруза:",$D$9="Разовая доверенность"),"Введите паспортные данные","")</f>
         <v/>
       </c>
-      <c r="K9" s="541"/>
-      <c r="L9" s="541"/>
-      <c r="M9" s="541"/>
+      <c r="K9" s="542"/>
+      <c r="L9" s="542"/>
+      <c r="M9" s="542"/>
       <c r="N9" s="73"/>
       <c r="P9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="542"/>
-      <c r="R9" s="542"/>
+      <c r="Q9" s="543"/>
+      <c r="R9" s="543"/>
       <c r="T9" s="528"/>
       <c r="U9" s="529"/>
       <c r="V9" s="534"/>
@@ -29503,7 +29546,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vWMSNELvPn/Anv25k0ru/0kBR0FBtRE3XkAj/+E0PqRRIwnxjFUXKHDWofYRPu5tzrqnU3LPeMrwutyn0L4DGA==" saltValue="8OLj/bnkjj7pxxi1fC8GqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A18:AF18">
+  <autoFilter ref="A18:AF18" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
     <filterColumn colId="16" showButton="0"/>
@@ -30154,431 +30197,62 @@
       <formula>IF($V$5="доставка",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="697" yWindow="616" count="143">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="День недели загрузки. Считается сам." sqref="Q6:Q7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X16:AC16">
+  <dataValidations xWindow="697" yWindow="616" count="20">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="День недели загрузки. Считается сам." sqref="Q6:Q7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X16:AC16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"80-60,60-40,40-10,70-10"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите дату загрузки. Пример 10.10.2007" prompt="Укажите дату загрузки. Пример 10.10.2007" sqref="Q5:R5">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите дату загрузки. Пример 10.10.2007" prompt="Укажите дату загрузки. Пример 10.10.2007" sqref="Q5:R5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>43831</formula1>
       <formula2>47484</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название вашей фирмы." sqref="V6:V7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите код клиента в системе Axapta" sqref="V10"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Определите тип Вашего заказа" sqref="V11:W11">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите название вашей фирмы." sqref="V6:V7" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите код клиента в системе Axapta" sqref="V10" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Определите тип Вашего заказа" sqref="V11:W11" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Основной заказ, Дозаказ, Замена"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Выберите значение из списка_x000a_" prompt="Выберите значение из списка" sqref="V5:W5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Выберите значение из списка_x000a_" prompt="Выберите значение из списка" sqref="V5:W5" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>DeliveryMethodList</formula1>
     </dataValidation>
-    <dataValidation type="time" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укаите время загрузки. Пример: 9:00" prompt="Укажите время загрузки. Пример: 9:00" sqref="Q8:R8">
+    <dataValidation type="time" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укаите время загрузки. Пример: 9:00" prompt="Укажите время загрузки. Пример: 9:00" sqref="Q8:R8" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0.000694444444444444</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите время доставки. Пример: 9:00" prompt="Укажите время доставки. Пример: 9:00" sqref="Q10:R13">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите время доставки. Пример: 9:00" prompt="Укажите время доставки. Пример: 9:00" sqref="Q10:R13" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0.000694444444444444</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите дату доставки. Пример 10.10.2007" prompt="Укажите дату доставки. Пример 10.10.2007" sqref="Q9:R9">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание!" error="Укажите дату доставки. Пример 10.10.2007" prompt="Укажите дату доставки. Пример 10.10.2007" sqref="Q9:R9" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>43831</formula1>
       <formula2>47484</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:E9" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"','Представитель клиента,'Уполномоченное лицо,'Разовая доверенность,'Будет определено на месте"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:E10" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>IF(TypeProxy="Уполномоченное лицо",NumProxySet,null)</formula1>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="укажите вес, кратный весу коробки" sqref="Z22:AC22"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V12">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="укажите вес, кратный весу коробки" sqref="Z22:AC22" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V12" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>DeliveryConditionsList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:N6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:N6" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>DeliveryAdressList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:N8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:N8" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>CHOOSE($D$7,UnloadAdressList)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:L8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:L8" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>CHOOSE($D$7,UnloadAdressList0001)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X22">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X22 X322 X297:X317 X291 X286:X287 X282 X276:X278 X270 X266 X260 X254:X255 X248 X241:X242 X236 X229:X231 X224 X216:X218 X206:X210 X200 X191:X194 X185 X180 X167:X168 X160:X163 X149 X143:X144 X138 X133 X127:X128 X121:X122 X115:X116 X107:X109 X105 X98:X100 X88:X93 X82:X83 X77 X71 X64:X66 X60 X56 X51 X48:X49 X45:X46 X43 X36:X38 X28:X31" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>IF(AK22&gt;0,OR(X22=0,AND(IF(X22-AK22&gt;=0,TRUE,FALSE),X22&gt;0)),FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X28">
-      <formula1>IF(AK28&gt;0,OR(X28=0,AND(IF(X28-AK28&gt;=0,TRUE,FALSE),X28&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X29">
-      <formula1>IF(AK29&gt;0,OR(X29=0,AND(IF(X29-AK29&gt;=0,TRUE,FALSE),X29&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X30">
-      <formula1>IF(AK30&gt;0,OR(X30=0,AND(IF(X30-AK30&gt;=0,TRUE,FALSE),X30&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X31">
-      <formula1>IF(AK31&gt;0,OR(X31=0,AND(IF(X31-AK31&gt;=0,TRUE,FALSE),X31&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X36">
-      <formula1>IF(AK36&gt;0,OR(X36=0,AND(IF(X36-AK36&gt;=0,TRUE,FALSE),X36&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X37">
-      <formula1>IF(AK37&gt;0,OR(X37=0,AND(IF(X37-AK37&gt;=0,TRUE,FALSE),X37&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X38">
-      <formula1>IF(AK38&gt;0,OR(X38=0,AND(IF(X38-AK38&gt;=0,TRUE,FALSE),X38&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X43">
-      <formula1>IF(AK43&gt;0,OR(X43=0,AND(IF(X43-AK43&gt;=0,TRUE,FALSE),X43&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X44">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X44 X292:X293 X219 X199 X174:X175 X106 X72 X50" xr:uid="{00000000-0002-0000-0000-00001A000000}">
       <formula1>IF(AK44&gt;0,OR(X44=0,AND(IF(X44-AK44&gt;=0,TRUE,FALSE),X44&gt;0,IF(X44/J44=ROUND(X44/J44,0),TRUE,FALSE))),FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X45">
-      <formula1>IF(AK45&gt;0,OR(X45=0,AND(IF(X45-AK45&gt;=0,TRUE,FALSE),X45&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X46">
-      <formula1>IF(AK46&gt;0,OR(X46=0,AND(IF(X46-AK46&gt;=0,TRUE,FALSE),X46&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X47">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X47 X211 X201 X176 X155 X110" xr:uid="{00000000-0002-0000-0000-00001D000000}">
       <formula1>IF(AK47&gt;0,OR(X47=0,AND(IF(X47-AK47&gt;=0,TRUE,FALSE),X47&gt;0,IF(X47/K47=ROUND(X47/K47,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X48">
-      <formula1>IF(AK48&gt;0,OR(X48=0,AND(IF(X48-AK48&gt;=0,TRUE,FALSE),X48&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X49">
-      <formula1>IF(AK49&gt;0,OR(X49=0,AND(IF(X49-AK49&gt;=0,TRUE,FALSE),X49&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X50">
-      <formula1>IF(AK50&gt;0,OR(X50=0,AND(IF(X50-AK50&gt;=0,TRUE,FALSE),X50&gt;0,IF(X50/J50=ROUND(X50/J50,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X51">
-      <formula1>IF(AK51&gt;0,OR(X51=0,AND(IF(X51-AK51&gt;=0,TRUE,FALSE),X51&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X56">
-      <formula1>IF(AK56&gt;0,OR(X56=0,AND(IF(X56-AK56&gt;=0,TRUE,FALSE),X56&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X60">
-      <formula1>IF(AK60&gt;0,OR(X60=0,AND(IF(X60-AK60&gt;=0,TRUE,FALSE),X60&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X64">
-      <formula1>IF(AK64&gt;0,OR(X64=0,AND(IF(X64-AK64&gt;=0,TRUE,FALSE),X64&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X65">
-      <formula1>IF(AK65&gt;0,OR(X65=0,AND(IF(X65-AK65&gt;=0,TRUE,FALSE),X65&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X66">
-      <formula1>IF(AK66&gt;0,OR(X66=0,AND(IF(X66-AK66&gt;=0,TRUE,FALSE),X66&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X71">
-      <formula1>IF(AK71&gt;0,OR(X71=0,AND(IF(X71-AK71&gt;=0,TRUE,FALSE),X71&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X72">
-      <formula1>IF(AK72&gt;0,OR(X72=0,AND(IF(X72-AK72&gt;=0,TRUE,FALSE),X72&gt;0,IF(X72/J72=ROUND(X72/J72,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X77">
-      <formula1>IF(AK77&gt;0,OR(X77=0,AND(IF(X77-AK77&gt;=0,TRUE,FALSE),X77&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X82">
-      <formula1>IF(AK82&gt;0,OR(X82=0,AND(IF(X82-AK82&gt;=0,TRUE,FALSE),X82&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X83">
-      <formula1>IF(AK83&gt;0,OR(X83=0,AND(IF(X83-AK83&gt;=0,TRUE,FALSE),X83&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X88">
-      <formula1>IF(AK88&gt;0,OR(X88=0,AND(IF(X88-AK88&gt;=0,TRUE,FALSE),X88&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X89">
-      <formula1>IF(AK89&gt;0,OR(X89=0,AND(IF(X89-AK89&gt;=0,TRUE,FALSE),X89&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X90">
-      <formula1>IF(AK90&gt;0,OR(X90=0,AND(IF(X90-AK90&gt;=0,TRUE,FALSE),X90&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X91">
-      <formula1>IF(AK91&gt;0,OR(X91=0,AND(IF(X91-AK91&gt;=0,TRUE,FALSE),X91&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X92">
-      <formula1>IF(AK92&gt;0,OR(X92=0,AND(IF(X92-AK92&gt;=0,TRUE,FALSE),X92&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X93">
-      <formula1>IF(AK93&gt;0,OR(X93=0,AND(IF(X93-AK93&gt;=0,TRUE,FALSE),X93&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X98">
-      <formula1>IF(AK98&gt;0,OR(X98=0,AND(IF(X98-AK98&gt;=0,TRUE,FALSE),X98&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X99">
-      <formula1>IF(AK99&gt;0,OR(X99=0,AND(IF(X99-AK99&gt;=0,TRUE,FALSE),X99&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X100">
-      <formula1>IF(AK100&gt;0,OR(X100=0,AND(IF(X100-AK100&gt;=0,TRUE,FALSE),X100&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X105">
-      <formula1>IF(AK105&gt;0,OR(X105=0,AND(IF(X105-AK105&gt;=0,TRUE,FALSE),X105&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X106">
-      <formula1>IF(AK106&gt;0,OR(X106=0,AND(IF(X106-AK106&gt;=0,TRUE,FALSE),X106&gt;0,IF(X106/J106=ROUND(X106/J106,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X107">
-      <formula1>IF(AK107&gt;0,OR(X107=0,AND(IF(X107-AK107&gt;=0,TRUE,FALSE),X107&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X108">
-      <formula1>IF(AK108&gt;0,OR(X108=0,AND(IF(X108-AK108&gt;=0,TRUE,FALSE),X108&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X109">
-      <formula1>IF(AK109&gt;0,OR(X109=0,AND(IF(X109-AK109&gt;=0,TRUE,FALSE),X109&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X110">
-      <formula1>IF(AK110&gt;0,OR(X110=0,AND(IF(X110-AK110&gt;=0,TRUE,FALSE),X110&gt;0,IF(X110/K110=ROUND(X110/K110,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X115">
-      <formula1>IF(AK115&gt;0,OR(X115=0,AND(IF(X115-AK115&gt;=0,TRUE,FALSE),X115&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X116">
-      <formula1>IF(AK116&gt;0,OR(X116=0,AND(IF(X116-AK116&gt;=0,TRUE,FALSE),X116&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X121">
-      <formula1>IF(AK121&gt;0,OR(X121=0,AND(IF(X121-AK121&gt;=0,TRUE,FALSE),X121&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X122">
-      <formula1>IF(AK122&gt;0,OR(X122=0,AND(IF(X122-AK122&gt;=0,TRUE,FALSE),X122&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X127">
-      <formula1>IF(AK127&gt;0,OR(X127=0,AND(IF(X127-AK127&gt;=0,TRUE,FALSE),X127&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X128">
-      <formula1>IF(AK128&gt;0,OR(X128=0,AND(IF(X128-AK128&gt;=0,TRUE,FALSE),X128&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X133">
-      <formula1>IF(AK133&gt;0,OR(X133=0,AND(IF(X133-AK133&gt;=0,TRUE,FALSE),X133&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X138">
-      <formula1>IF(AK138&gt;0,OR(X138=0,AND(IF(X138-AK138&gt;=0,TRUE,FALSE),X138&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X143">
-      <formula1>IF(AK143&gt;0,OR(X143=0,AND(IF(X143-AK143&gt;=0,TRUE,FALSE),X143&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X144">
-      <formula1>IF(AK144&gt;0,OR(X144=0,AND(IF(X144-AK144&gt;=0,TRUE,FALSE),X144&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X149">
-      <formula1>IF(AK149&gt;0,OR(X149=0,AND(IF(X149-AK149&gt;=0,TRUE,FALSE),X149&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X155">
-      <formula1>IF(AK155&gt;0,OR(X155=0,AND(IF(X155-AK155&gt;=0,TRUE,FALSE),X155&gt;0,IF(X155/K155=ROUND(X155/K155,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X160">
-      <formula1>IF(AK160&gt;0,OR(X160=0,AND(IF(X160-AK160&gt;=0,TRUE,FALSE),X160&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X161">
-      <formula1>IF(AK161&gt;0,OR(X161=0,AND(IF(X161-AK161&gt;=0,TRUE,FALSE),X161&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X162">
-      <formula1>IF(AK162&gt;0,OR(X162=0,AND(IF(X162-AK162&gt;=0,TRUE,FALSE),X162&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X163">
-      <formula1>IF(AK163&gt;0,OR(X163=0,AND(IF(X163-AK163&gt;=0,TRUE,FALSE),X163&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X167">
-      <formula1>IF(AK167&gt;0,OR(X167=0,AND(IF(X167-AK167&gt;=0,TRUE,FALSE),X167&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X168">
-      <formula1>IF(AK168&gt;0,OR(X168=0,AND(IF(X168-AK168&gt;=0,TRUE,FALSE),X168&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X174">
-      <formula1>IF(AK174&gt;0,OR(X174=0,AND(IF(X174-AK174&gt;=0,TRUE,FALSE),X174&gt;0,IF(X174/J174=ROUND(X174/J174,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X175">
-      <formula1>IF(AK175&gt;0,OR(X175=0,AND(IF(X175-AK175&gt;=0,TRUE,FALSE),X175&gt;0,IF(X175/J175=ROUND(X175/J175,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X176">
-      <formula1>IF(AK176&gt;0,OR(X176=0,AND(IF(X176-AK176&gt;=0,TRUE,FALSE),X176&gt;0,IF(X176/K176=ROUND(X176/K176,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X180">
-      <formula1>IF(AK180&gt;0,OR(X180=0,AND(IF(X180-AK180&gt;=0,TRUE,FALSE),X180&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X185">
-      <formula1>IF(AK185&gt;0,OR(X185=0,AND(IF(X185-AK185&gt;=0,TRUE,FALSE),X185&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X191">
-      <formula1>IF(AK191&gt;0,OR(X191=0,AND(IF(X191-AK191&gt;=0,TRUE,FALSE),X191&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X192">
-      <formula1>IF(AK192&gt;0,OR(X192=0,AND(IF(X192-AK192&gt;=0,TRUE,FALSE),X192&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X193">
-      <formula1>IF(AK193&gt;0,OR(X193=0,AND(IF(X193-AK193&gt;=0,TRUE,FALSE),X193&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X194">
-      <formula1>IF(AK194&gt;0,OR(X194=0,AND(IF(X194-AK194&gt;=0,TRUE,FALSE),X194&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X199">
-      <formula1>IF(AK199&gt;0,OR(X199=0,AND(IF(X199-AK199&gt;=0,TRUE,FALSE),X199&gt;0,IF(X199/J199=ROUND(X199/J199,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X200">
-      <formula1>IF(AK200&gt;0,OR(X200=0,AND(IF(X200-AK200&gt;=0,TRUE,FALSE),X200&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X201">
-      <formula1>IF(AK201&gt;0,OR(X201=0,AND(IF(X201-AK201&gt;=0,TRUE,FALSE),X201&gt;0,IF(X201/K201=ROUND(X201/K201,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X206">
-      <formula1>IF(AK206&gt;0,OR(X206=0,AND(IF(X206-AK206&gt;=0,TRUE,FALSE),X206&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X207">
-      <formula1>IF(AK207&gt;0,OR(X207=0,AND(IF(X207-AK207&gt;=0,TRUE,FALSE),X207&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X208">
-      <formula1>IF(AK208&gt;0,OR(X208=0,AND(IF(X208-AK208&gt;=0,TRUE,FALSE),X208&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X209">
-      <formula1>IF(AK209&gt;0,OR(X209=0,AND(IF(X209-AK209&gt;=0,TRUE,FALSE),X209&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X210">
-      <formula1>IF(AK210&gt;0,OR(X210=0,AND(IF(X210-AK210&gt;=0,TRUE,FALSE),X210&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X211">
-      <formula1>IF(AK211&gt;0,OR(X211=0,AND(IF(X211-AK211&gt;=0,TRUE,FALSE),X211&gt;0,IF(X211/K211=ROUND(X211/K211,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X216">
-      <formula1>IF(AK216&gt;0,OR(X216=0,AND(IF(X216-AK216&gt;=0,TRUE,FALSE),X216&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X217">
-      <formula1>IF(AK217&gt;0,OR(X217=0,AND(IF(X217-AK217&gt;=0,TRUE,FALSE),X217&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X218">
-      <formula1>IF(AK218&gt;0,OR(X218=0,AND(IF(X218-AK218&gt;=0,TRUE,FALSE),X218&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X219">
-      <formula1>IF(AK219&gt;0,OR(X219=0,AND(IF(X219-AK219&gt;=0,TRUE,FALSE),X219&gt;0,IF(X219/J219=ROUND(X219/J219,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X224">
-      <formula1>IF(AK224&gt;0,OR(X224=0,AND(IF(X224-AK224&gt;=0,TRUE,FALSE),X224&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X229">
-      <formula1>IF(AK229&gt;0,OR(X229=0,AND(IF(X229-AK229&gt;=0,TRUE,FALSE),X229&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X230">
-      <formula1>IF(AK230&gt;0,OR(X230=0,AND(IF(X230-AK230&gt;=0,TRUE,FALSE),X230&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X231">
-      <formula1>IF(AK231&gt;0,OR(X231=0,AND(IF(X231-AK231&gt;=0,TRUE,FALSE),X231&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X236">
-      <formula1>IF(AK236&gt;0,OR(X236=0,AND(IF(X236-AK236&gt;=0,TRUE,FALSE),X236&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X241">
-      <formula1>IF(AK241&gt;0,OR(X241=0,AND(IF(X241-AK241&gt;=0,TRUE,FALSE),X241&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X242">
-      <formula1>IF(AK242&gt;0,OR(X242=0,AND(IF(X242-AK242&gt;=0,TRUE,FALSE),X242&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X248">
-      <formula1>IF(AK248&gt;0,OR(X248=0,AND(IF(X248-AK248&gt;=0,TRUE,FALSE),X248&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X254">
-      <formula1>IF(AK254&gt;0,OR(X254=0,AND(IF(X254-AK254&gt;=0,TRUE,FALSE),X254&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X255">
-      <formula1>IF(AK255&gt;0,OR(X255=0,AND(IF(X255-AK255&gt;=0,TRUE,FALSE),X255&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X260">
-      <formula1>IF(AK260&gt;0,OR(X260=0,AND(IF(X260-AK260&gt;=0,TRUE,FALSE),X260&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X266">
-      <formula1>IF(AK266&gt;0,OR(X266=0,AND(IF(X266-AK266&gt;=0,TRUE,FALSE),X266&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X270">
-      <formula1>IF(AK270&gt;0,OR(X270=0,AND(IF(X270-AK270&gt;=0,TRUE,FALSE),X270&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X276">
-      <formula1>IF(AK276&gt;0,OR(X276=0,AND(IF(X276-AK276&gt;=0,TRUE,FALSE),X276&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X277">
-      <formula1>IF(AK277&gt;0,OR(X277=0,AND(IF(X277-AK277&gt;=0,TRUE,FALSE),X277&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X278">
-      <formula1>IF(AK278&gt;0,OR(X278=0,AND(IF(X278-AK278&gt;=0,TRUE,FALSE),X278&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X282">
-      <formula1>IF(AK282&gt;0,OR(X282=0,AND(IF(X282-AK282&gt;=0,TRUE,FALSE),X282&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X286">
-      <formula1>IF(AK286&gt;0,OR(X286=0,AND(IF(X286-AK286&gt;=0,TRUE,FALSE),X286&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X287">
-      <formula1>IF(AK287&gt;0,OR(X287=0,AND(IF(X287-AK287&gt;=0,TRUE,FALSE),X287&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X291">
-      <formula1>IF(AK291&gt;0,OR(X291=0,AND(IF(X291-AK291&gt;=0,TRUE,FALSE),X291&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X292">
-      <formula1>IF(AK292&gt;0,OR(X292=0,AND(IF(X292-AK292&gt;=0,TRUE,FALSE),X292&gt;0,IF(X292/J292=ROUND(X292/J292,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказа, отличный от Короба. Пожалуйста, введите значение, не меньше минимального количества и кратное количеству коробов в слое/паллете" sqref="X293">
-      <formula1>IF(AK293&gt;0,OR(X293=0,AND(IF(X293-AK293&gt;=0,TRUE,FALSE),X293&gt;0,IF(X293/J293=ROUND(X293/J293,0),TRUE,FALSE))),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X297">
-      <formula1>IF(AK297&gt;0,OR(X297=0,AND(IF(X297-AK297&gt;=0,TRUE,FALSE),X297&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X298">
-      <formula1>IF(AK298&gt;0,OR(X298=0,AND(IF(X298-AK298&gt;=0,TRUE,FALSE),X298&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X299">
-      <formula1>IF(AK299&gt;0,OR(X299=0,AND(IF(X299-AK299&gt;=0,TRUE,FALSE),X299&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X300">
-      <formula1>IF(AK300&gt;0,OR(X300=0,AND(IF(X300-AK300&gt;=0,TRUE,FALSE),X300&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X301">
-      <formula1>IF(AK301&gt;0,OR(X301=0,AND(IF(X301-AK301&gt;=0,TRUE,FALSE),X301&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X302">
-      <formula1>IF(AK302&gt;0,OR(X302=0,AND(IF(X302-AK302&gt;=0,TRUE,FALSE),X302&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X303">
-      <formula1>IF(AK303&gt;0,OR(X303=0,AND(IF(X303-AK303&gt;=0,TRUE,FALSE),X303&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X304">
-      <formula1>IF(AK304&gt;0,OR(X304=0,AND(IF(X304-AK304&gt;=0,TRUE,FALSE),X304&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X305">
-      <formula1>IF(AK305&gt;0,OR(X305=0,AND(IF(X305-AK305&gt;=0,TRUE,FALSE),X305&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X306">
-      <formula1>IF(AK306&gt;0,OR(X306=0,AND(IF(X306-AK306&gt;=0,TRUE,FALSE),X306&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X307">
-      <formula1>IF(AK307&gt;0,OR(X307=0,AND(IF(X307-AK307&gt;=0,TRUE,FALSE),X307&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X308">
-      <formula1>IF(AK308&gt;0,OR(X308=0,AND(IF(X308-AK308&gt;=0,TRUE,FALSE),X308&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X309">
-      <formula1>IF(AK309&gt;0,OR(X309=0,AND(IF(X309-AK309&gt;=0,TRUE,FALSE),X309&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X310">
-      <formula1>IF(AK310&gt;0,OR(X310=0,AND(IF(X310-AK310&gt;=0,TRUE,FALSE),X310&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X311">
-      <formula1>IF(AK311&gt;0,OR(X311=0,AND(IF(X311-AK311&gt;=0,TRUE,FALSE),X311&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X312">
-      <formula1>IF(AK312&gt;0,OR(X312=0,AND(IF(X312-AK312&gt;=0,TRUE,FALSE),X312&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X313">
-      <formula1>IF(AK313&gt;0,OR(X313=0,AND(IF(X313-AK313&gt;=0,TRUE,FALSE),X313&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X314">
-      <formula1>IF(AK314&gt;0,OR(X314=0,AND(IF(X314-AK314&gt;=0,TRUE,FALSE),X314&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X315">
-      <formula1>IF(AK315&gt;0,OR(X315=0,AND(IF(X315-AK315&gt;=0,TRUE,FALSE),X315&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X316">
-      <formula1>IF(AK316&gt;0,OR(X316=0,AND(IF(X316-AK316&gt;=0,TRUE,FALSE),X316&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X317">
-      <formula1>IF(AK317&gt;0,OR(X317=0,AND(IF(X317-AK317&gt;=0,TRUE,FALSE),X317&gt;0)),FALSE)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Нарушение кванта заказа!" error="Для этой позиции задан квант заказ равный Короб, введите значение не меньше минимального количества" sqref="X322">
-      <formula1>IF(AK322&gt;0,OR(X322=0,AND(IF(X322-AK322&gt;=0,TRUE,FALSE),X322&gt;0)),FALSE)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -30591,7 +30265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
